--- a/uploads/catalog_glonass.xlsx
+++ b/uploads/catalog_glonass.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -25,10 +25,19 @@
     <t>amount</t>
   </si>
   <si>
-    <t>glonass0</t>
-  </si>
-  <si>
-    <t>glonass1</t>
+    <t>src_preview</t>
+  </si>
+  <si>
+    <t>Модуль LITE CAN MT 865</t>
+  </si>
+  <si>
+    <t>https://tahografizh.ru/wp-content/uploads/2023/05/lite-can-mt-865_256x256.png</t>
+  </si>
+  <si>
+    <t>Модуль MT 865 ONE</t>
+  </si>
+  <si>
+    <t>https://tahografizh.ru/wp-content/uploads/2023/05/mt-865-one_256x256.png</t>
   </si>
   <si>
     <t>МЕНЯТЬ МОЖНО,
@@ -36,23 +45,26 @@
 (ВНИЗ)</t>
   </si>
   <si>
-    <t>glonass2</t>
+    <t>Модуль MT-855 ENT</t>
+  </si>
+  <si>
+    <t>https://tahografizh.ru/wp-content/uploads/2023/05/mt-855-ent_256x256.png</t>
   </si>
   <si>
     <t>МЕНЯТЬ НЕЛЬЗЯ</t>
   </si>
   <si>
-    <t>glonass3</t>
-  </si>
-  <si>
-    <t>glonassaadf</t>
+    <t>Модуль MT-700 DVR</t>
+  </si>
+  <si>
+    <t>https://tahografizh.ru/wp-content/uploads/2023/05/mt-700-dvr_256x256.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -63,6 +75,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -91,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -101,6 +117,10 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -318,6 +338,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.25"/>
+    <col customWidth="1" min="2" max="2" width="24.13"/>
+    <col customWidth="1" min="3" max="3" width="20.38"/>
+    <col customWidth="1" min="4" max="4" width="22.38"/>
+    <col customWidth="1" min="5" max="5" width="55.88"/>
     <col customWidth="1" min="6" max="6" width="19.25"/>
   </cols>
   <sheetData>
@@ -334,36 +358,45 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>33120.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D2" s="2">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="3" ht="49.5" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="27.75" customHeight="1">
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>10000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D3" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -371,16 +404,19 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>123456.0</v>
+        <v>12000.0</v>
       </c>
       <c r="D4" s="2">
-        <v>66.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -388,30 +424,106 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>222.0</v>
+        <v>72000.0</v>
       </c>
       <c r="D5" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>312.0</v>
-      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>